--- a/artfynd/A 47947-2022.xlsx
+++ b/artfynd/A 47947-2022.xlsx
@@ -1293,7 +1293,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107683517</v>
+        <v>107682310</v>
       </c>
       <c r="B7" t="n">
         <v>57007</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>357411.1398782768</v>
+        <v>357048.2525418315</v>
       </c>
       <c r="R7" t="n">
-        <v>6425417.655266645</v>
+        <v>6425584.133382582</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Erik Edvardsson</t>
+          <t>Olle Kvarnbäck</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
@@ -1418,7 +1418,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107682310</v>
+        <v>107683517</v>
       </c>
       <c r="B8" t="n">
         <v>57007</v>
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>357048.2525418315</v>
+        <v>357411.1398782768</v>
       </c>
       <c r="R8" t="n">
-        <v>6425584.133382582</v>
+        <v>6425417.655266645</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Olle Kvarnbäck</t>
+          <t>Erik Edvardsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">

--- a/artfynd/A 47947-2022.xlsx
+++ b/artfynd/A 47947-2022.xlsx
@@ -1293,7 +1293,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107682310</v>
+        <v>107683517</v>
       </c>
       <c r="B7" t="n">
         <v>57007</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>357048.2525418315</v>
+        <v>357411.1398782768</v>
       </c>
       <c r="R7" t="n">
-        <v>6425584.133382582</v>
+        <v>6425417.655266645</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-05-22</t>
+          <t>2022-03-18</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Olle Kvarnbäck</t>
+          <t>Erik Edvardsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
@@ -1418,7 +1418,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107683517</v>
+        <v>107682310</v>
       </c>
       <c r="B8" t="n">
         <v>57007</v>
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>357411.1398782768</v>
+        <v>357048.2525418315</v>
       </c>
       <c r="R8" t="n">
-        <v>6425417.655266645</v>
+        <v>6425584.133382582</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-03-18</t>
+          <t>2022-05-22</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1532,7 +1532,7 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Erik Edvardsson</t>
+          <t>Olle Kvarnbäck</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
